--- a/BPS_FH_Dataset/23/chords.xlsx
+++ b/BPS_FH_Dataset/23/chords.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1389,18 +1389,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>-1.5</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>18</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>22.5</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>36</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>39</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>48</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>51</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>54</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>60</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>63</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>66</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>88.5</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>90</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>94.5</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>114</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>123</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>126</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>135</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>138</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>144</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>150</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>156</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>168</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>174</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>180</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>183</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>186</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>189</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>192</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>204</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>213</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>216</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>220.5</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>222</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>225</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>228</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>237</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>240</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>246</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>249</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>252</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>258</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>300</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>306</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>312</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>316.5</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>322.5</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>324</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>330</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>336</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>340.5</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>346.5</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>348</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>349.5</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>351</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>352.5</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>354</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>357</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>360</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>361.5</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>363</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>364.5</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>366</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>367.5</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>369</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>370.5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>372</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>373.5</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>375</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>376.5</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>378</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>388.5</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>394.5</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>408</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>411</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>414</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>420</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>423</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>426</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>432</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>435</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>438</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>439.5</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>442.5</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>444</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>447</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>450</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>453</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>456</v>
       </c>
@@ -3516,12 +3516,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>457.5</v>
       </c>
       <c r="B93" s="1">
-        <v>560.5</v>
+        <v>460.5</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>81</v>
@@ -3539,9 +3539,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>560.5</v>
+        <v>460.5</v>
       </c>
       <c r="B94" s="1">
         <v>462</v>
@@ -3562,7 +3562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>462</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>465</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>466.5</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>480</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>492</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>504</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>516</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>528</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>540</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>541.5</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>543</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>544.5</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>546</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>547.5</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>549</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>550.5</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>552</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>558</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>564</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>570</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>576</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>582</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>588</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>594</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>600</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>603</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>606</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>609</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>612</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>615</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>618</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>621</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>624</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>648</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>657</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>660</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>664.5</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>666</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>669</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>672</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>676.5</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>681</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>684</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>688.5</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>690</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>693</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>696</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>705</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>708</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>714</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>720</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>726</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>732</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>786</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>787.5</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>789</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>790.5</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>792</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>793.5</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>795</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>796.5</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>798</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>808.5</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>822</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>825</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>828</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>832.5</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>846</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>849</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>852</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>852.5</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>858</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>861</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>864</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>870</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>873</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>876</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>882</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>897</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>898.5</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>900</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>904.5</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>924</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>933</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>936</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>945</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>948</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>957</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>960</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>969</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>972</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>978</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>984</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>990</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>996</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>1002</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>1008</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>1014</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>1017</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>1020</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>1023</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>1026</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>1032</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>1038</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>1054.5</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>1056</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>1059</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>1062</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>1071</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>1074</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>1080</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>1086</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>1092</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>1130</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>1140</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>1146</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>1150.5</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>1156.5</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>1158</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>1164</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>1170</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>1174.5</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>1180.5</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>1182</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>1183.5</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>1185</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>1186.5</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>1188</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>1191</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>1194</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>1195.5</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>1197</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>1198.5</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>1200</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>1201.5</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>1203</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>1204.5</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>1206</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>1207.5</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>1209</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>1210.5</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>1212</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>1230</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>1242</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>1248</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>1254</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>1263</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>1266</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>1272</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>1275</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>1278</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>1284</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>1290</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>1296</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>1302</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>1314</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>1326</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>1329</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>1332</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>1335</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>1338</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>1339.5</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>1341</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>1342.5</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>1344</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>1345.5</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>1347</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>1348.5</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>1350</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>1351.5</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>1353</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>1368</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>1380</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>1392</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>1425</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>1426.5</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>1428</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>1437</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>1440</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>1449</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>1452</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>1458</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>1464</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>1467</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>1470</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>1476</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>1482</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>1485</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>1488</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>1491</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>1494</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>1497</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>1500</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>1501.5</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>1503</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>1504.5</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>1506</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>1509</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>1512</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>1515</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>1518</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>1519.5</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>1521</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>1522.5</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>1524</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>1525.5</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>1527</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>1528.5</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>1530</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>1531.5</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>1533</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>1534.5</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>1536</v>
       </c>
